--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39636004-05A8-4236-921F-04AF3B0C8C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A53004-7B0E-4389-82DE-3C2CA56A4942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3225" windowWidth="24525" windowHeight="12975" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
+    <workbookView xWindow="3150" yWindow="1410" windowWidth="24525" windowHeight="12975" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -47,12 +48,36 @@
     <t>1,2,3,4,5,6,7,8,9,10</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ルーレットの設定ファイルです。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞（RouletteCell）設定ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>サイボウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,21 +93,62 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -91,8 +157,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,7 +495,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -455,4 +527,46 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0840BF-D969-43D3-89C1-A961067427EF}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A53004-7B0E-4389-82DE-3C2CA56A4942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79D3BB-123D-4427-8FEF-E5812D03B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1410" windowWidth="24525" windowHeight="12975" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
+    <workbookView xWindow="90" yWindow="3960" windowWidth="24525" windowHeight="12975" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>CellList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -70,6 +66,10 @@
     <rPh sb="16" eb="18">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -551,7 +551,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -561,7 +561,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79D3BB-123D-4427-8FEF-E5812D03B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4606B68-E82B-4A8F-B180-331C20E928A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="3960" windowWidth="24525" windowHeight="12975" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
+    <workbookView xWindow="-19845" yWindow="2970" windowWidth="18495" windowHeight="10515" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +61,14 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014,1015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001,2002,2003,2004,2005,2006,2007,2008,2009</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -157,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,11 +166,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -185,11 +191,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03188315-9822-41BE-BC50-8B89CFE91EB5}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{DCB3801F-5EB0-4523-9D8C-AF8C31D04F77}" name="CellList"/>
+    <tableColumn id="2" xr3:uid="{DCB3801F-5EB0-4523-9D8C-AF8C31D04F77}" name="CellList" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,18 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76A41B3-3BEA-476B-B8FB-126FD11ABE12}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,12 +517,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -537,29 +559,29 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4606B68-E82B-4A8F-B180-331C20E928A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631FF658-9FE1-4C9A-8B3A-A6BAB464D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19845" yWindow="2970" windowWidth="18495" windowHeight="10515" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -156,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,6 +175,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03188315-9822-41BE-BC50-8B89CFE91EB5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{DCB3801F-5EB0-4523-9D8C-AF8C31D04F77}" name="CellList" dataDxfId="0"/>
@@ -498,18 +512,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76A41B3-3BEA-476B-B8FB-126FD11ABE12}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="77.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -533,11 +547,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -559,29 +605,29 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631FF658-9FE1-4C9A-8B3A-A6BAB464D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8BC44-64E8-419E-A0CB-04094EC9B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -71,12 +78,37 @@
     <t>2001,2002,2003,2004,2005,2006,2007,2008,2009</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3001,3002,3003,3004,3005,3006,3007,3008,3009</t>
+  </si>
+  <si>
+    <t>3101,3102,3103,3104,3105,3106,3107,3108,3109</t>
+  </si>
+  <si>
+    <t>3201,3202,3203,3204,3205,3206,3207,3208,3209</t>
+  </si>
+  <si>
+    <t>3301,3302,3303,3304,3305,3306,3307,3308,3309</t>
+  </si>
+  <si>
+    <t>3401,3402,3403,3404,3405,3406,3407,3408,3409</t>
+  </si>
+  <si>
+    <t>3501,3502,3503,3504,3505,3506,3507,3508,3509</t>
+  </si>
+  <si>
+    <t>3601,3602,3603</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721,3722,3723,3724,3725,3726,3727,3728,3729,3730,3731,3732,3733,3734,3735,3736,3737,3738</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +141,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +160,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,7 +225,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03188315-9822-41BE-BC50-8B89CFE91EB5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{DCB3801F-5EB0-4523-9D8C-AF8C31D04F77}" name="CellList" dataDxfId="0"/>
@@ -512,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76A41B3-3BEA-476B-B8FB-126FD11ABE12}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -556,35 +604,67 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8BC44-64E8-419E-A0CB-04094EC9B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F1453-35C5-402C-B4B1-BC20940A7567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -79,29 +79,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3001,3002,3003,3004,3005,3006,3007,3008,3009</t>
-  </si>
-  <si>
-    <t>3101,3102,3103,3104,3105,3106,3107,3108,3109</t>
-  </si>
-  <si>
-    <t>3201,3202,3203,3204,3205,3206,3207,3208,3209</t>
-  </si>
-  <si>
-    <t>3301,3302,3303,3304,3305,3306,3307,3308,3309</t>
-  </si>
-  <si>
-    <t>3401,3402,3403,3404,3405,3406,3407,3408,3409</t>
-  </si>
-  <si>
-    <t>3501,3502,3503,3504,3505,3506,3507,3508,3509</t>
-  </si>
-  <si>
-    <t>3601,3602,3603</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721,3722,3723,3724,3725,3726,3727,3728,3729,3730,3731,3732,3733,3734,3735,3736,3737,3738</t>
+    <t>3001,3002,3003,3004,3005,3006,3007,3008,3009,3010,3011,3012,3013,3014,3015,3016,3017,3018,3019,3020,3021</t>
+  </si>
+  <si>
+    <t>3101,3102,3103,3104,3105,3106,3107,3108,3109,3110,3111,3112,3113,3114,3115,3116,3117,3118,3119,3120,3121</t>
+  </si>
+  <si>
+    <t>3201,3202,3203,3204,3205,3206,3207,3208,3209,3210,3211,3212,3213,3214,3215,3216,3217,3218,3219,3220,3221</t>
+  </si>
+  <si>
+    <t>3301,3302,3303,3304,3305,3306,3307,3308,3309,3310,3311,3312,3313,3314,3315,3316,3317,3318,3319,3320,3321</t>
+  </si>
+  <si>
+    <t>3401,3402,3403,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3414,3415,3416,3417,3418,3419,3420,3421</t>
+  </si>
+  <si>
+    <t>3501,3502,3503,3504,3505,3506,3507,3508,3509,3510,3511,3512,3513,3514,3515,3516,3517,3518,3519,3520,3521</t>
+  </si>
+  <si>
+    <t>3601,3602,3603,3604,3605,3606,3607,3608,3609</t>
+  </si>
+  <si>
+    <t>3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721</t>
+  </si>
+  <si>
+    <t>3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827,3828,3829,3830,3831,3832,3833,3834,3835,3836,3837,3838,3839,3840,3841,3842,3843,3844,3845,3846,3847,3848,3849,3850</t>
   </si>
 </sst>
 </file>
@@ -253,8 +255,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B12" totalsRowShown="0">
-  <autoFilter ref="A1:B12" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}" name="テーブル1" displayName="テーブル1" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{DD15B953-746B-4781-83FF-034A4C69D373}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03188315-9822-41BE-BC50-8B89CFE91EB5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{DCB3801F-5EB0-4523-9D8C-AF8C31D04F77}" name="CellList" dataDxfId="0"/>
@@ -560,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76A41B3-3BEA-476B-B8FB-126FD11ABE12}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -665,6 +667,14 @@
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F1453-35C5-402C-B4B1-BC20940A7567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE316CAB-416D-47BD-8278-67640E89C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
@@ -103,7 +103,8 @@
     <t>3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721</t>
   </si>
   <si>
-    <t>3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827,3828,3829,3830,3831,3832,3833,3834,3835,3836,3837,3838,3839,3840,3841,3842,3843,3844,3845,3846,3847,3848,3849,3850</t>
+    <t>3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -211,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +232,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +569,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -606,7 +610,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -614,7 +618,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -622,7 +626,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -630,7 +634,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -638,7 +642,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -646,7 +650,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -654,7 +658,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -662,7 +666,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">

--- a/Config/Excel/Roulette.xlsx
+++ b/Config/Excel/Roulette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE316CAB-416D-47BD-8278-67640E89C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5B124-BFA5-4233-BF5E-2477A1A322CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F9BFB6-0A9A-45E1-ABAA-DEA5DA509DB1}"/>
   </bookViews>
@@ -79,32 +79,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3001,3002,3003,3004,3005,3006,3007,3008,3009,3010,3011,3012,3013,3014,3015,3016,3017,3018,3019,3020,3021</t>
-  </si>
-  <si>
-    <t>3101,3102,3103,3104,3105,3106,3107,3108,3109,3110,3111,3112,3113,3114,3115,3116,3117,3118,3119,3120,3121</t>
-  </si>
-  <si>
-    <t>3201,3202,3203,3204,3205,3206,3207,3208,3209,3210,3211,3212,3213,3214,3215,3216,3217,3218,3219,3220,3221</t>
-  </si>
-  <si>
-    <t>3301,3302,3303,3304,3305,3306,3307,3308,3309,3310,3311,3312,3313,3314,3315,3316,3317,3318,3319,3320,3321</t>
-  </si>
-  <si>
-    <t>3401,3402,3403,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3414,3415,3416,3417,3418,3419,3420,3421</t>
-  </si>
-  <si>
-    <t>3501,3502,3503,3504,3505,3506,3507,3508,3509,3510,3511,3512,3513,3514,3515,3516,3517,3518,3519,3520,3521</t>
-  </si>
-  <si>
-    <t>3601,3602,3603,3604,3605,3606,3607,3608,3609</t>
-  </si>
-  <si>
-    <t>3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721</t>
-  </si>
-  <si>
-    <t>3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827</t>
-    <phoneticPr fontId="1"/>
+    <t>3001,3002,3003,3004,3005,3006,3007,3008,3009,3010,3011,3012,3013,3014,3015,3016,3017,3018,3019,3020,3021,3022,3023,3024,3025,3026,3027,3028,3029,3030</t>
+  </si>
+  <si>
+    <t>3101,3102,3103,3104,3105,3106,3107,3108,3109,3110,3111,3112,3113,3114,3115,3116,3117,3118,3119,3120,3121,3122,3123,3124,3125,3126,3127,3128,3129,3130</t>
+  </si>
+  <si>
+    <t>3201,3202,3203,3204,3205,3206,3207,3208,3209,3210,3211,3212,3213,3214,3215,3216,3217,3218,3219,3220,3221,3222,3223,3224,3225,3226,3227,3228,3229,3230</t>
+  </si>
+  <si>
+    <t>3301,3302,3303,3304,3305,3306,3307,3308,3309,3310,3311,3312,3313,3314,3315,3316,3317,3318,3319,3320,3321,3322,3323,3324,3325,3326,3327,3328,3329,3330</t>
+  </si>
+  <si>
+    <t>3401,3402,3403,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3414,3415,3416,3417,3418,3419,3420,3421,3422,3423,3424,3425,3426,3427,3428,3429,3430</t>
+  </si>
+  <si>
+    <t>3501,3502,3503,3504,3505,3506,3507,3508,3509,3510,3511,3512,3513,3514,3515,3516,3517,3518,3519,3520,3521,3522,3523,3524,3525,3526,3527,3528,3529,3530</t>
+  </si>
+  <si>
+    <t>3601,3602,3603,3604,3605,3606,3607,3608,3609,3610,3611,3612,3613,3614,3615</t>
+  </si>
+  <si>
+    <t>3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721,3722,3723,3724,3725,3726,3727,3728,3729,3730</t>
+  </si>
+  <si>
+    <t>3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827,3828,3829,3830,3831,3832,3833,3834,3835,3836</t>
   </si>
 </sst>
 </file>
@@ -569,7 +568,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
